--- a/src/main/java/com/ninja/qa/testdata/Ninja_Testdata.xlsx
+++ b/src/main/java/com/ninja/qa/testdata/Ninja_Testdata.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\selenium learning\udemy\Automation_Framework\src\main\java\com\ninja\qa\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\selenium learning\udemy\DataDrivenFramework\src\main\java\com\ninja\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFFB17F-ABE0-4C73-8635-150B3B52A0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBF8CAA-3E3F-4FE6-83C4-D139BC27F582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94B63385-E764-4A40-BFA6-8BD7425DAE6F}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="12240" windowHeight="6432" xr2:uid="{94B63385-E764-4A40-BFA6-8BD7425DAE6F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,13 +33,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>amotooricap9@gmail.com</t>
+    <t>keerthi@mailinator.com</t>
   </si>
   <si>
-    <t>amotooricap1@gmail.com</t>
+    <t>keerthi2@mailinator.com</t>
   </si>
   <si>
-    <t>amotooricap3@gmail.com</t>
+    <t>keerthi1@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -77,7 +77,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,15 +85,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -412,7 +428,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,34 +437,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>12345</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
         <v>12345</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
         <v>12345</v>
       </c>
     </row>
